--- a/db/Danh sach nhom.xlsx
+++ b/db/Danh sach nhom.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKH\deepface\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKH\deepface-master\attendance_files\CT051H\M04\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE242EE-FC26-4C75-8F1A-5025AC5FDF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="M01" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -532,14 +533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -549,7 +550,7 @@
     <col min="6" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -565,7 +566,7 @@
       <c r="E1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -581,7 +582,7 @@
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -597,7 +598,7 @@
       <c r="E3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -613,7 +614,7 @@
       <c r="E4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -629,7 +630,7 @@
       <c r="E5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -645,7 +646,7 @@
       <c r="E6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -661,7 +662,7 @@
       <c r="E7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -677,7 +678,7 @@
       <c r="E8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -693,7 +694,7 @@
       <c r="E9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="E10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="E11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -741,7 +742,7 @@
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -757,7 +758,7 @@
       <c r="E13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -805,7 +806,7 @@
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -821,7 +822,7 @@
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -837,7 +838,7 @@
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -853,7 +854,7 @@
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -869,7 +870,7 @@
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -885,7 +886,7 @@
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
